--- a/Document/更新日记/美术/【Titan】脚本更新记录_王静静.xlsx
+++ b/Document/更新日记/美术/【Titan】脚本更新记录_王静静.xlsx
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="301">
   <si>
     <t>更新日期</t>
   </si>
@@ -1262,6 +1262,17 @@
   </si>
   <si>
     <t>ef_UI_WarMainModeFrame_Custome ef_UI_WarMainModeFrame_Machine ef_UI_WarMainModeFrame_Rank ef_UI_WarMainModeFrame_Survive ef_UI_WarMainFrame_ListWarMainMode_KaiZhanYinDaoXuanZhong</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月21号</t>
+  </si>
+  <si>
+    <t>新手引导光效优化</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ef_UI_WarMainModeFrame_xinshouyindao_da ef_UI_WarMainModeFrame_xinshouyindao_xiao</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1718,7 +1729,7 @@
   <dimension ref="A1:Q108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -4544,10 +4555,19 @@
         <v>王静静【全版本】[内部知晓]:新手引导光效。(修改文件:ef_UI_WarMainFrame_ListWarMainMode_GameModeItem ef_UI_WarMainFrame_ListWarMainMode_GameModeItem_xiao)</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A105" s="7" t="s">
+        <v>298</v>
+      </c>
       <c r="B105" s="1">
         <v>104</v>
       </c>
+      <c r="C105" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="D105" s="14" t="s">
+        <v>300</v>
+      </c>
       <c r="E105" s="1" t="s">
         <v>8</v>
       </c>
@@ -4559,7 +4579,7 @@
       </c>
       <c r="H105" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>王静静【全版本】[内部知晓]:。(修改文件:)</v>
+        <v>王静静【全版本】[内部知晓]:新手引导光效优化。(修改文件:ef_UI_WarMainModeFrame_xinshouyindao_da ef_UI_WarMainModeFrame_xinshouyindao_xiao)</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.15">

--- a/Document/更新日记/美术/【Titan】脚本更新记录_王静静.xlsx
+++ b/Document/更新日记/美术/【Titan】脚本更新记录_王静静.xlsx
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="303">
   <si>
     <t>更新日期</t>
   </si>
@@ -1253,10 +1253,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>ef_UI_WarMainFrame_ListWarMainMode_GameModeItem ef_UI_WarMainFrame_ListWarMainMode_GameModeItem_xiao</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1273,6 +1269,18 @@
   </si>
   <si>
     <t>ef_UI_WarMainModeFrame_xinshouyindao_da ef_UI_WarMainModeFrame_xinshouyindao_xiao</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月25号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ef_common_piaozi_jinshi</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>警示光效</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1729,7 +1737,7 @@
   <dimension ref="A1:Q108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -4512,7 +4520,7 @@
         <v>293</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>8</v>
@@ -4539,7 +4547,7 @@
         <v>294</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>8</v>
@@ -4557,16 +4565,16 @@
     </row>
     <row r="105" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A105" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B105" s="1">
         <v>104</v>
       </c>
       <c r="C105" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="D105" s="14" t="s">
         <v>299</v>
-      </c>
-      <c r="D105" s="14" t="s">
-        <v>300</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>8</v>
@@ -4583,11 +4591,17 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A106" s="7" t="s">
+        <v>300</v>
+      </c>
       <c r="B106" s="1">
         <v>105</v>
       </c>
+      <c r="C106" s="14" t="s">
+        <v>302</v>
+      </c>
       <c r="D106" s="14" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>8</v>
@@ -4600,7 +4614,7 @@
       </c>
       <c r="H106" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>王静静【全版本】[内部知晓]:。(修改文件: )</v>
+        <v>王静静【全版本】[内部知晓]:警示光效。(修改文件: ef_common_piaozi_jinshi)</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.15">

--- a/Document/更新日记/美术/【Titan】脚本更新记录_王静静.xlsx
+++ b/Document/更新日记/美术/【Titan】脚本更新记录_王静静.xlsx
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="311">
   <si>
     <t>更新日期</t>
   </si>
@@ -1276,11 +1276,43 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> ef_common_piaozi_jinshi</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>警示光效</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月28号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索奖励修改</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ef_TaskUnfoldView_PrizePopupGo_List_sousuojiangli01</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>基地修复</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ef_npc_jidi_b_Dead</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ef_common_piaozi_jinshi</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月27号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ef_login_hero_bulan</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>布兰展示光效优化</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1734,10 +1766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q108"/>
+  <dimension ref="A1:Q129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2754,7 +2786,7 @@
         <v>王静静【全版本】[内部知晓]:劳勃划痕。(修改文件:ef_hero_laobobailaxien_02_attack01_sf ef_hero_laobobailaxien_04_attack02_sf ef_hero_laobobailaxien_06_attack03_sf)</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
         <v>112</v>
       </c>
@@ -2808,7 +2840,7 @@
         <v>王静静【全版本】[内部知晓]:李寻欢Q技能优化。(修改文件:ef_hero_lixunhuan_09_skill02_sf ef_hero_lixunhuan_27_skill02_yj)</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
         <v>117</v>
       </c>
@@ -3105,7 +3137,7 @@
         <v>王静静【全版本】[内部知晓]:索罗斯预警光效优化。(修改文件:ef_hero_suoluosi_10_jn03_sf  ef_hero_suoluosi_25_jn01_sf  ef_hero_suoluosi_29_jn04_01_sf  ef_hero_suoluosi_30_jn04_02_sj ef_hero_suoluosi_31_jn04_03_cx  ef_hero_suoluosi_35_jn01_02_sf  ef_hero_suoluosi_36_skill04_cx)</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A51" s="7" t="s">
         <v>146</v>
       </c>
@@ -3483,7 +3515,7 @@
         <v>王静静【全版本】[内部知晓]:修正5-制作的本命英雄。(修改文件:ef_benming_moshan，ef_benming_longmu，ef_benming_paiyapuli，ef_benming_fengmoqishi，ef_benming_shougezhe，ef_benming_wumianzhe，ef_benming_paoshou)</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="7" t="s">
         <v>185</v>
       </c>
@@ -4343,11 +4375,11 @@
         <v>9</v>
       </c>
       <c r="H96" s="10" t="str">
-        <f t="shared" ref="H96:H108" si="6">CONCATENATE(F96,"","【",E96,"】[",G96,"]:",C96,"。(修改文件:",D96,")")</f>
+        <f t="shared" ref="H96:H109" si="6">CONCATENATE(F96,"","【",E96,"】[",G96,"]:",C96,"。(修改文件:",D96,")")</f>
         <v>王静静【全版本】[内部知晓]:布兰狼光效优化。(修改文件:ef_hero_bulan_wolf_05_skill01_sf)</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A97" s="7" t="s">
         <v>272</v>
       </c>
@@ -4598,10 +4630,10 @@
         <v>105</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>8</v>
@@ -4614,13 +4646,22 @@
       </c>
       <c r="H106" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>王静静【全版本】[内部知晓]:警示光效。(修改文件: ef_common_piaozi_jinshi)</v>
+        <v>王静静【全版本】[内部知晓]:警示光效。(修改文件:ef_common_piaozi_jinshi)</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A107" s="7" t="s">
+        <v>308</v>
+      </c>
       <c r="B107" s="1">
         <v>106</v>
       </c>
+      <c r="C107" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="D107" s="14" t="s">
+        <v>309</v>
+      </c>
       <c r="E107" s="1" t="s">
         <v>8</v>
       </c>
@@ -4631,14 +4672,23 @@
         <v>9</v>
       </c>
       <c r="H107" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>王静静【全版本】[内部知晓]:。(修改文件:)</v>
+        <f t="shared" ref="H107" si="7">CONCATENATE(F107,"","【",E107,"】[",G107,"]:",C107,"。(修改文件:",D107,")")</f>
+        <v>王静静【全版本】[内部知晓]:布兰展示光效优化。(修改文件:ef_login_hero_bulan)</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A108" s="7" t="s">
+        <v>308</v>
+      </c>
       <c r="B108" s="1">
         <v>107</v>
       </c>
+      <c r="C108" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="D108" s="14" t="s">
+        <v>306</v>
+      </c>
       <c r="E108" s="1" t="s">
         <v>8</v>
       </c>
@@ -4650,6 +4700,393 @@
       </c>
       <c r="H108" s="10" t="str">
         <f t="shared" si="6"/>
+        <v>王静静【全版本】[内部知晓]:基地修复。(修改文件:ef_npc_jidi_b_Dead)</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A109" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B109" s="1">
+        <v>108</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="D109" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H109" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>王静静【全版本】[内部知晓]:搜索奖励修改。(修改文件:ef_TaskUnfoldView_PrizePopupGo_List_sousuojiangli01)</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B110" s="1">
+        <v>109</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H110" s="10" t="str">
+        <f t="shared" ref="H110:H129" si="8">CONCATENATE(F110,"","【",E110,"】[",G110,"]:",C110,"。(修改文件:",D110,")")</f>
+        <v>王静静【全版本】[内部知晓]:。(修改文件:)</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B111" s="1">
+        <v>110</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H111" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>王静静【全版本】[内部知晓]:。(修改文件:)</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B112" s="1">
+        <v>111</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H112" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>王静静【全版本】[内部知晓]:。(修改文件:)</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B113" s="1">
+        <v>112</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H113" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>王静静【全版本】[内部知晓]:。(修改文件:)</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B114" s="1">
+        <v>113</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H114" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>王静静【全版本】[内部知晓]:。(修改文件:)</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B115" s="1">
+        <v>114</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H115" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>王静静【全版本】[内部知晓]:。(修改文件:)</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B116" s="1">
+        <v>115</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H116" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>王静静【全版本】[内部知晓]:。(修改文件:)</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B117" s="1">
+        <v>116</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H117" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>王静静【全版本】[内部知晓]:。(修改文件:)</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B118" s="1">
+        <v>117</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H118" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>王静静【全版本】[内部知晓]:。(修改文件:)</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B119" s="1">
+        <v>118</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H119" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>王静静【全版本】[内部知晓]:。(修改文件:)</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B120" s="1">
+        <v>119</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H120" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>王静静【全版本】[内部知晓]:。(修改文件:)</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B121" s="1">
+        <v>120</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H121" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>王静静【全版本】[内部知晓]:。(修改文件:)</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B122" s="1">
+        <v>121</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H122" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>王静静【全版本】[内部知晓]:。(修改文件:)</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B123" s="1">
+        <v>122</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H123" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>王静静【全版本】[内部知晓]:。(修改文件:)</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B124" s="1">
+        <v>123</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H124" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>王静静【全版本】[内部知晓]:。(修改文件:)</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B125" s="1">
+        <v>124</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F125" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H125" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>王静静【全版本】[内部知晓]:。(修改文件:)</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B126" s="1">
+        <v>125</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H126" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>王静静【全版本】[内部知晓]:。(修改文件:)</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B127" s="1">
+        <v>126</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F127" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H127" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>王静静【全版本】[内部知晓]:。(修改文件:)</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B128" s="1">
+        <v>127</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F128" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H128" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>王静静【全版本】[内部知晓]:。(修改文件:)</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B129" s="1">
+        <v>128</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H129" s="10" t="str">
+        <f t="shared" si="8"/>
         <v>王静静【全版本】[内部知晓]:。(修改文件:)</v>
       </c>
     </row>
@@ -4662,10 +5099,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 JC1 SY1 ACU1 AMQ1 AWM1 BGI1 BQE1 CAA1 CJW1 CTS1 DDO1 DNK1 DXG1 EHC1 EQY1 FAU1 FKQ1 FUM1 GEI1 GOE1 GYA1 HHW1 HRS1 IBO1 ILK1 IVG1 JFC1 JOY1 JYU1 KIQ1 KSM1 LCI1 LME1 LWA1 MFW1 MPS1 MZO1 NJK1 NTG1 ODC1 OMY1 OWU1 PGQ1 PQM1 QAI1 QKE1 QUA1 RDW1 RNS1 RXO1 SHK1 SRG1 TBC1 TKY1 TUU1 UEQ1 UOM1 UYI1 VIE1 VSA1 WBW1 WLS1 WVO1">
       <formula1>"内部知晓,新增,修改"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVO2:WVO10 WLS2:WLS10 WBW2:WBW10 VSA2:VSA10 VIE2:VIE10 UYI2:UYI10 UOM2:UOM10 UEQ2:UEQ10 TUU2:TUU10 TKY2:TKY10 TBC2:TBC10 SRG2:SRG10 SHK2:SHK10 RXO2:RXO10 RNS2:RNS10 RDW2:RDW10 QUA2:QUA10 QKE2:QKE10 QAI2:QAI10 PQM2:PQM10 PGQ2:PGQ10 OWU2:OWU10 OMY2:OMY10 ODC2:ODC10 NTG2:NTG10 NJK2:NJK10 MZO2:MZO10 MPS2:MPS10 MFW2:MFW10 LWA2:LWA10 LME2:LME10 LCI2:LCI10 KSM2:KSM10 KIQ2:KIQ10 JYU2:JYU10 JOY2:JOY10 JFC2:JFC10 IVG2:IVG10 ILK2:ILK10 IBO2:IBO10 HRS2:HRS10 HHW2:HHW10 GYA2:GYA10 GOE2:GOE10 GEI2:GEI10 FUM2:FUM10 FKQ2:FKQ10 FAU2:FAU10 EQY2:EQY10 EHC2:EHC10 DXG2:DXG10 DNK2:DNK10 DDO2:DDO10 CTS2:CTS10 CJW2:CJW10 CAA2:CAA10 BQE2:BQE10 BGI2:BGI10 AWM2:AWM10 AMQ2:AMQ10 ACU2:ACU10 SY2:SY10 JC2:JC10 G2:G108">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVO2:WVO10 WLS2:WLS10 WBW2:WBW10 VSA2:VSA10 VIE2:VIE10 UYI2:UYI10 UOM2:UOM10 UEQ2:UEQ10 TUU2:TUU10 TKY2:TKY10 TBC2:TBC10 SRG2:SRG10 SHK2:SHK10 RXO2:RXO10 RNS2:RNS10 RDW2:RDW10 QUA2:QUA10 QKE2:QKE10 QAI2:QAI10 PQM2:PQM10 PGQ2:PGQ10 OWU2:OWU10 OMY2:OMY10 ODC2:ODC10 NTG2:NTG10 NJK2:NJK10 MZO2:MZO10 MPS2:MPS10 MFW2:MFW10 LWA2:LWA10 LME2:LME10 LCI2:LCI10 KSM2:KSM10 KIQ2:KIQ10 JYU2:JYU10 JOY2:JOY10 JFC2:JFC10 IVG2:IVG10 ILK2:ILK10 IBO2:IBO10 HRS2:HRS10 HHW2:HHW10 GYA2:GYA10 GOE2:GOE10 GEI2:GEI10 FUM2:FUM10 FKQ2:FKQ10 FAU2:FAU10 EQY2:EQY10 EHC2:EHC10 DXG2:DXG10 DNK2:DNK10 DDO2:DDO10 CTS2:CTS10 CJW2:CJW10 CAA2:CAA10 BQE2:BQE10 BGI2:BGI10 AWM2:AWM10 AMQ2:AMQ10 ACU2:ACU10 SY2:SY10 JC2:JC10 G2:G129">
       <formula1>$Q$2:$Q$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVM2:WVM10 WLQ2:WLQ10 WBU2:WBU10 VRY2:VRY10 VIC2:VIC10 UYG2:UYG10 UOK2:UOK10 UEO2:UEO10 TUS2:TUS10 TKW2:TKW10 TBA2:TBA10 SRE2:SRE10 SHI2:SHI10 RXM2:RXM10 RNQ2:RNQ10 RDU2:RDU10 QTY2:QTY10 QKC2:QKC10 QAG2:QAG10 PQK2:PQK10 PGO2:PGO10 OWS2:OWS10 OMW2:OMW10 ODA2:ODA10 NTE2:NTE10 NJI2:NJI10 MZM2:MZM10 MPQ2:MPQ10 MFU2:MFU10 LVY2:LVY10 LMC2:LMC10 LCG2:LCG10 KSK2:KSK10 KIO2:KIO10 JYS2:JYS10 JOW2:JOW10 JFA2:JFA10 IVE2:IVE10 ILI2:ILI10 IBM2:IBM10 HRQ2:HRQ10 HHU2:HHU10 GXY2:GXY10 GOC2:GOC10 GEG2:GEG10 FUK2:FUK10 FKO2:FKO10 FAS2:FAS10 EQW2:EQW10 EHA2:EHA10 DXE2:DXE10 DNI2:DNI10 DDM2:DDM10 CTQ2:CTQ10 CJU2:CJU10 BZY2:BZY10 BQC2:BQC10 BGG2:BGG10 AWK2:AWK10 AMO2:AMO10 ACS2:ACS10 SW2:SW10 JA2:JA10 E2:E108">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVM2:WVM10 WLQ2:WLQ10 WBU2:WBU10 VRY2:VRY10 VIC2:VIC10 UYG2:UYG10 UOK2:UOK10 UEO2:UEO10 TUS2:TUS10 TKW2:TKW10 TBA2:TBA10 SRE2:SRE10 SHI2:SHI10 RXM2:RXM10 RNQ2:RNQ10 RDU2:RDU10 QTY2:QTY10 QKC2:QKC10 QAG2:QAG10 PQK2:PQK10 PGO2:PGO10 OWS2:OWS10 OMW2:OMW10 ODA2:ODA10 NTE2:NTE10 NJI2:NJI10 MZM2:MZM10 MPQ2:MPQ10 MFU2:MFU10 LVY2:LVY10 LMC2:LMC10 LCG2:LCG10 KSK2:KSK10 KIO2:KIO10 JYS2:JYS10 JOW2:JOW10 JFA2:JFA10 IVE2:IVE10 ILI2:ILI10 IBM2:IBM10 HRQ2:HRQ10 HHU2:HHU10 GXY2:GXY10 GOC2:GOC10 GEG2:GEG10 FUK2:FUK10 FKO2:FKO10 FAS2:FAS10 EQW2:EQW10 EHA2:EHA10 DXE2:DXE10 DNI2:DNI10 DDM2:DDM10 CTQ2:CTQ10 CJU2:CJU10 BZY2:BZY10 BQC2:BQC10 BGG2:BGG10 AWK2:AWK10 AMO2:AMO10 ACS2:ACS10 SW2:SW10 JA2:JA10 E2:E129">
       <formula1>$O$2:$O$4</formula1>
     </dataValidation>
   </dataValidations>
